--- a/biology/Botanique/Colli_di_Scandiano_e_di_Canossa/Colli_di_Scandiano_e_di_Canossa.xlsx
+++ b/biology/Botanique/Colli_di_Scandiano_e_di_Canossa/Colli_di_Scandiano_e_di_Canossa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Colli di Scandiano e di Canossa est un vignoble de la région Émilie-Romagne doté d'une appellation DOC depuis le 20 septembre 1996. 
 L'appellation Colli di Scandiano e di Canossa est subdivisée en sous-appellations selon le 
@@ -514,7 +526,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Reggio d'Émilie dans les communes de Albinea, Quattro Castella, Bibbiano, Montecchio, San Polo d'Enza, Canossa, Vezzano sul Crostolo, Viano, Scandiano, Castellarano et Casalgrande ainsi qu'en partie sur le territoire des communes Reggio d'Émilie, Casina, Sant'Ilario d'Enza et Cavriago.
 </t>
@@ -545,7 +559,9 @@
           <t>Vins, appellations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les appellations sont:
 Colli di Scandiano e di Canossa Cabernet Sauvignon
